--- a/conven_control/random_position.xlsx
+++ b/conven_control/random_position.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNIST\Desktop\null-space-posture-optimization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNIST\Desktop\git\null-space-posture-optimization\conven_control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843D991E-8B22-4BC8-BDA3-80C9296B6804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EEB7EF-4D14-4AC5-8A30-0D6A18376FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2985" windowWidth="21600" windowHeight="11385" xr2:uid="{0361D736-92D1-4C7A-B745-FE2664F4DFF9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0361D736-92D1-4C7A-B745-FE2664F4DFF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$15</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,13 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>paramter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995B223C-2995-4FB0-8C38-DC3C83136B2C}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -429,15 +428,15 @@
     <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="B1">
-        <v>0.25</v>
+        <v>-0.35</v>
       </c>
       <c r="C1">
-        <f t="shared" ref="C1" si="0">0.2-0.478</f>
+        <f t="shared" ref="C1:C21" si="0">0.2-0.478</f>
         <v>-0.27799999999999997</v>
       </c>
       <c r="D1">
@@ -447,23 +446,24 @@
         <v>1.5707899999999999</v>
       </c>
       <c r="F1">
-        <v>6.9999999999999999E-4</v>
+        <v>-3.4999999999999997E-5</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J1" s="2"/>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="B2">
-        <v>-0.35</v>
+        <v>-0.2</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2" si="1">0.2-0.478</f>
+        <f t="shared" si="0"/>
         <v>-0.27799999999999997</v>
       </c>
       <c r="D2">
@@ -473,29 +473,27 @@
         <v>1.5707899999999999</v>
       </c>
       <c r="F2">
-        <v>-3.4999999999999997E-5</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="1">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="K2" s="1">
         <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="K2">
-        <v>1E-3</v>
       </c>
       <c r="L2">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.65</v>
       </c>
       <c r="B3">
-        <v>-0.35</v>
+        <v>-0.05</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3" si="2">0.2-0.478</f>
+        <f t="shared" si="0"/>
         <v>-0.27799999999999997</v>
       </c>
       <c r="D3">
@@ -505,29 +503,27 @@
         <v>1.5707899999999999</v>
       </c>
       <c r="F3">
-        <v>-3.4999999999999997E-5</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="1">
+        <v>5.2700000000000002E-4</v>
+      </c>
+      <c r="K3" s="1">
         <v>2.5</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>2</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="B4">
         <v>0.1</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4" si="3">0.2-0.478</f>
+        <f t="shared" si="0"/>
         <v>-0.27799999999999997</v>
       </c>
       <c r="D4">
@@ -539,29 +535,25 @@
       <c r="F4">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>1E-3</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.01</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="B5">
-        <v>-0.35</v>
+        <v>0.25</v>
       </c>
       <c r="C5">
-        <f>0.2-0.478</f>
+        <f t="shared" si="0"/>
         <v>-0.27799999999999997</v>
       </c>
       <c r="D5">
@@ -571,18 +563,18 @@
         <v>1.5707899999999999</v>
       </c>
       <c r="F5">
-        <v>-3.4999999999999997E-5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.8</v>
       </c>
       <c r="B6">
-        <v>-0.2</v>
+        <v>-0.35</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C15" si="4">0.2-0.478</f>
+        <f t="shared" si="0"/>
         <v>-0.27799999999999997</v>
       </c>
       <c r="D6">
@@ -592,18 +584,18 @@
         <v>1.5707899999999999</v>
       </c>
       <c r="F6">
-        <v>2.4000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>-3.4999999999999997E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.8</v>
       </c>
       <c r="B7">
-        <v>-0.05</v>
+        <v>-0.2</v>
       </c>
       <c r="C7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-0.27799999999999997</v>
       </c>
       <c r="D7">
@@ -613,18 +605,18 @@
         <v>1.5707899999999999</v>
       </c>
       <c r="F7">
-        <v>5.2700000000000002E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2.4000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.8</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="C8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-0.27799999999999997</v>
       </c>
       <c r="D8">
@@ -634,18 +626,18 @@
         <v>1.5707899999999999</v>
       </c>
       <c r="F8">
-        <v>6.9999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>5.2700000000000002E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.8</v>
       </c>
       <c r="B9">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-0.27799999999999997</v>
       </c>
       <c r="D9">
@@ -658,99 +650,107 @@
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
       <c r="B10">
+        <v>0.25</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>-0.27799999999999997</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1.5707899999999999</v>
+      </c>
+      <c r="F10">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0.95</v>
+      </c>
+      <c r="B11">
+        <v>-0.35</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>-0.27799999999999997</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1.5707899999999999</v>
+      </c>
+      <c r="F11">
+        <v>-3.4999999999999997E-5</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0.95</v>
+      </c>
+      <c r="B12">
         <v>-0.2</v>
       </c>
-      <c r="C10">
-        <f t="shared" si="4"/>
-        <v>-0.27799999999999997</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1.5707899999999999</v>
-      </c>
-      <c r="F10">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>-0.27799999999999997</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1.5707899999999999</v>
+      </c>
+      <c r="F12">
         <v>2.4000000000000001E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>0.65</v>
-      </c>
-      <c r="B11">
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0.95</v>
+      </c>
+      <c r="B13">
         <v>-0.05</v>
       </c>
-      <c r="C11">
-        <f t="shared" si="4"/>
-        <v>-0.27799999999999997</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>1.5707899999999999</v>
-      </c>
-      <c r="F11">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>-0.27799999999999997</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1.5707899999999999</v>
+      </c>
+      <c r="F13">
         <v>5.2700000000000002E-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>0.65</v>
-      </c>
-      <c r="B12">
-        <v>0.1</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="4"/>
-        <v>-0.27799999999999997</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>1.5707899999999999</v>
-      </c>
-      <c r="F12">
-        <v>6.9999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>0.65</v>
-      </c>
-      <c r="B13">
-        <v>0.25</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="4"/>
-        <v>-0.27799999999999997</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>1.5707899999999999</v>
-      </c>
-      <c r="F13">
-        <v>6.9999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.95</v>
       </c>
       <c r="B14">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-0.27799999999999997</v>
       </c>
       <c r="D14">
@@ -760,18 +760,18 @@
         <v>1.5707899999999999</v>
       </c>
       <c r="F14">
-        <v>2.4000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.95</v>
       </c>
       <c r="B15">
-        <v>-0.05</v>
+        <v>0.25</v>
       </c>
       <c r="C15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>-0.27799999999999997</v>
       </c>
       <c r="D15">
@@ -781,10 +781,32 @@
         <v>1.5707899999999999</v>
       </c>
       <c r="F15">
-        <v>5.2700000000000002E-4</v>
-      </c>
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="20" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="8:10" x14ac:dyDescent="0.3">
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:M15">
+    <sortCondition ref="A1:A15"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
